--- a/112-2/INTRODUCTION TO MATLAB PROGRAMMING/Homework/HW 3/assignment3_grade.xlsx
+++ b/112-2/INTRODUCTION TO MATLAB PROGRAMMING/Homework/HW 3/assignment3_grade.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\FCU\112-2\INTRODUCTION TO MATLAB PROGRAMMING\Homework\HW 3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E257155A-479D-417A-BF10-E0AF68AB86C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BE68F3E-1653-4B62-A940-A51D72C49A99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="grade" sheetId="8" r:id="rId1"/>
@@ -469,14 +469,15 @@
     <font>
       <sz val="12"/>
       <name val="新細明體"/>
-      <charset val="134"/>
+      <family val="1"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="MingLiU"/>
-      <charset val="134"/>
+      <family val="3"/>
+      <charset val="136"/>
     </font>
     <font>
       <sz val="12"/>
@@ -489,7 +490,7 @@
       <sz val="12"/>
       <color theme="10"/>
       <name val="新細明體"/>
-      <charset val="134"/>
+      <family val="1"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -511,18 +512,12 @@
       <charset val="136"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="4">
@@ -659,10 +654,10 @@
     <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -953,20 +948,20 @@
       <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="L24" sqref="L24"/>
+      <selection pane="bottomRight" activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.05" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="4.46484375" style="3" customWidth="1"/>
+    <col min="1" max="1" width="4.44140625" style="3" customWidth="1"/>
     <col min="2" max="2" width="11.33203125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="11.86328125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="7.86328125" customWidth="1"/>
-    <col min="5" max="10" width="9.9296875" style="17" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.19921875" customWidth="1"/>
-    <col min="12" max="13" width="5.86328125" customWidth="1"/>
-    <col min="14" max="14" width="6.46484375" customWidth="1"/>
-    <col min="15" max="22" width="6.1328125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="7.88671875" customWidth="1"/>
+    <col min="5" max="10" width="9.88671875" style="17" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.21875" customWidth="1"/>
+    <col min="12" max="13" width="5.88671875" customWidth="1"/>
+    <col min="14" max="14" width="6.44140625" customWidth="1"/>
+    <col min="15" max="22" width="6.109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" s="1" customFormat="1" ht="16.05" customHeight="1">
@@ -1108,7 +1103,7 @@
       <c r="C4" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="D4" s="24" t="s">
+      <c r="D4" s="30" t="s">
         <v>8</v>
       </c>
       <c r="E4" s="20">
@@ -1155,7 +1150,7 @@
       <c r="C5" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="D5" s="24" t="s">
+      <c r="D5" s="30" t="s">
         <v>9</v>
       </c>
       <c r="E5" s="20">
@@ -1202,7 +1197,7 @@
       <c r="C6" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="D6" s="24" t="s">
+      <c r="D6" s="30" t="s">
         <v>11</v>
       </c>
       <c r="E6" s="20">
@@ -1296,7 +1291,7 @@
       <c r="C8" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="D8" s="24" t="s">
+      <c r="D8" s="30" t="s">
         <v>15</v>
       </c>
       <c r="E8" s="20">
@@ -2158,12 +2153,29 @@
 General Grading Report</oddHeader>
   </headerFooter>
   <ignoredErrors>
-    <ignoredError sqref="E24:I24" formulaRange="1"/>
+    <ignoredError sqref="E24:J24" formulaRange="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="3317c420-d316-4435-8241-33b98cfe393f" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="文件" ma:contentTypeID="0x010100B542E048DCEC914CB381455F65170921" ma:contentTypeVersion="17" ma:contentTypeDescription="建立新的文件。" ma:contentTypeScope="" ma:versionID="a9fe78b0e763ba360e927b7ffbaa4d7a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="3317c420-d316-4435-8241-33b98cfe393f" xmlns:ns4="63d3d360-74a6-4491-a2a1-d2af0de2cd9e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f4f3198fc71856a272a1be625b81b45a" ns3:_="" ns4:_="">
     <xsd:import namespace="3317c420-d316-4435-8241-33b98cfe393f"/>
@@ -2410,37 +2422,20 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="3317c420-d316-4435-8241-33b98cfe393f" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F8C229C7-8A04-4E15-A9F4-3B3F02F65EE4}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{84D1AD7C-47F2-4F28-91EE-0FBA88418B59}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{84D1AD7C-47F2-4F28-91EE-0FBA88418B59}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9E640310-4364-41D6-9671-4FC3C3618F46}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9E640310-4364-41D6-9671-4FC3C3618F46}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F8C229C7-8A04-4E15-A9F4-3B3F02F65EE4}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>